--- a/Artifacts/issue/IssueLog.xlsx
+++ b/Artifacts/issue/IssueLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mirajD\Desktop\EduSycn_AI_Classroom_Management_WebAPP\Artifacts\issue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A90E4D-B859-44BA-BE92-13AE1291F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CBF08E-34BF-4D69-900F-6D0FAEDD8E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.5546875" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.3"/>
